--- a/assets/posts/pajak/2018/05/Teliti-2018-contoh-kasus-transaksi.xlsx
+++ b/assets/posts/pajak/2018/05/Teliti-2018-contoh-kasus-transaksi.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Case-06" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'00-CoA'!$A$1:$E$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'00-CoA'!$A$1:$E$55</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'10-Journal'!$A$1:$J$114</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Case-01'!$A$1:$J$25</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Case-02'!$A$1:$J$27</definedName>
@@ -26,7 +26,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'Case-04'!$A$1:$J$29</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Case-05'!$A$1:$J$29</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'Case-06'!$A$1:$J$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'00-CoA'!$A$1:$E$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'00-CoA'!$A$1:$E$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'10-Journal'!$A$1:$J$95</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Case-05'!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">'Case-06'!$A$1:$J$5</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="94">
   <si>
     <t xml:space="preserve">Chart of Accounts: 2018</t>
   </si>
@@ -70,10 +70,7 @@
     <t xml:space="preserve">Account Receiveable</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice (Piutang Usaha)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outstanding Invoices</t>
+    <t xml:space="preserve">Sales Invoice (Piutang Usaha)</t>
   </si>
   <si>
     <t xml:space="preserve">WHT/VAT in</t>
@@ -118,7 +115,7 @@
     <t xml:space="preserve">Account Payable</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice (Hutang Usaha)</t>
+    <t xml:space="preserve">Purchase Invoice (Hutang Usaha)</t>
   </si>
   <si>
     <t xml:space="preserve">WHT/VAT out</t>
@@ -1113,7 +1110,7 @@
   <dimension ref="B2:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,9 +1197,7 @@
       <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
@@ -1212,10 +1207,10 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="16"/>
       <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1223,10 +1218,10 @@
         <v>1411</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1234,7 +1229,7 @@
         <v>1422</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -1243,7 +1238,7 @@
         <v>1423</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -1252,7 +1247,7 @@
         <v>1441</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -1261,7 +1256,7 @@
         <v>1442</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -1270,7 +1265,7 @@
         <v>1451</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -1284,25 +1279,25 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="16"/>
       <c r="C23" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="14"/>
     </row>
@@ -1311,7 +1306,7 @@
         <v>2320</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -1323,10 +1318,10 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="16"/>
       <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1334,10 +1329,10 @@
         <v>2411</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1345,7 +1340,7 @@
         <v>2412</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -1354,7 +1349,7 @@
         <v>2422</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -1363,10 +1358,10 @@
         <v>2423</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1374,7 +1369,7 @@
         <v>2441</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -1383,10 +1378,10 @@
         <v>2442</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1394,7 +1389,7 @@
         <v>2451</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -1403,7 +1398,7 @@
         <v>2452</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="4"/>
     </row>
@@ -1417,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="9"/>
       <c r="C37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -1435,7 +1430,7 @@
         <v>4110</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4"/>
     </row>
@@ -1449,19 +1444,19 @@
         <v>5</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1469,10 +1464,10 @@
         <v>5110</v>
       </c>
       <c r="C42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1483,7 +1478,7 @@
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="9"/>
       <c r="C44" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="11"/>
     </row>
@@ -1492,10 +1487,10 @@
         <v>5210</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1503,10 +1498,10 @@
         <v>5221</v>
       </c>
       <c r="C46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1517,17 +1512,17 @@
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="9"/>
       <c r="C48" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="16"/>
       <c r="C49" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1538,10 +1533,10 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="12"/>
       <c r="C51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1552,10 +1547,10 @@
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="16"/>
       <c r="C53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1563,10 +1558,10 @@
         <v>6410</v>
       </c>
       <c r="C54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="7.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1776,8 +1771,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A115" activeCellId="0" sqref="A115"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -1797,17 +1792,17 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1829,10 +1824,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="22"/>
@@ -1853,24 +1848,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -1891,34 +1886,34 @@
         <v>43161</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="43"/>
     </row>
@@ -1946,12 +1941,12 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="56" t="n">
         <v>17500000</v>
@@ -1984,7 +1979,7 @@
         <v>17500000</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2022,34 +2017,34 @@
         <v>43161</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B19" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="43"/>
     </row>
@@ -2077,12 +2072,12 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="56" t="n">
         <v>17500000</v>
@@ -2097,7 +2092,7 @@
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="67" t="n">
         <v>0.1</v>
@@ -2136,7 +2131,7 @@
         <v>19250000</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2174,34 +2169,34 @@
         <v>43161</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
       <c r="F27" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B28" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="43"/>
     </row>
@@ -2228,7 +2223,7 @@
         <v>1423</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="53"/>
       <c r="F30" s="67" t="n">
@@ -2248,12 +2243,12 @@
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
       <c r="H31" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I31" s="56" t="n">
         <v>17500000</v>
@@ -2286,7 +2281,7 @@
         <v>17150000</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2324,34 +2319,34 @@
         <v>43161</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B37" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
       <c r="F37" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37" s="43"/>
     </row>
@@ -2378,7 +2373,7 @@
         <v>1423</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="67" t="n">
@@ -2398,12 +2393,12 @@
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I40" s="56" t="n">
         <v>17500000</v>
@@ -2418,7 +2413,7 @@
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="67" t="n">
         <v>0.1</v>
@@ -2457,7 +2452,7 @@
         <v>18900000</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2495,34 +2490,34 @@
         <v>43161</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="32"/>
       <c r="F46" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I46" s="35"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B47" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="39"/>
       <c r="F47" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" s="41"/>
       <c r="H47" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" s="43"/>
     </row>
@@ -2550,12 +2545,12 @@
       </c>
       <c r="D49" s="52"/>
       <c r="E49" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
       <c r="H49" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49" s="56" t="n">
         <v>17500000</v>
@@ -2570,7 +2565,7 @@
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="67" t="n">
         <v>0.1</v>
@@ -2609,7 +2604,7 @@
         <v>18900000</v>
       </c>
       <c r="I52" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2618,7 +2613,7 @@
         <v>1423</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" s="53"/>
       <c r="F53" s="67" t="n">
@@ -2660,10 +2655,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="26"/>
       <c r="E56" s="22"/>
@@ -2684,24 +2679,24 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B58" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="D58" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="69"/>
       <c r="F58" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" s="70"/>
       <c r="H58" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="I58" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2722,34 +2717,34 @@
         <v>43166</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="31"/>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G60" s="33"/>
       <c r="H60" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="35"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B61" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
       <c r="F61" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I61" s="43"/>
     </row>
@@ -2759,7 +2754,7 @@
         <v>5110</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" s="46"/>
       <c r="F62" s="47"/>
@@ -2768,7 +2763,7 @@
         <v>12500000</v>
       </c>
       <c r="I62" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2778,7 +2773,7 @@
       </c>
       <c r="D63" s="52"/>
       <c r="E63" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
@@ -2804,7 +2799,7 @@
         <v>2320</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E65" s="46"/>
       <c r="F65" s="47"/>
@@ -2813,7 +2808,7 @@
         <v>12500000</v>
       </c>
       <c r="I65" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2853,34 +2848,34 @@
         <v>43166</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="32"/>
       <c r="F68" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I68" s="35"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B69" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="39"/>
       <c r="F69" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G69" s="41"/>
       <c r="H69" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I69" s="43"/>
     </row>
@@ -2890,7 +2885,7 @@
         <v>5110</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E70" s="46"/>
       <c r="F70" s="47"/>
@@ -2899,7 +2894,7 @@
         <v>12500000</v>
       </c>
       <c r="I70" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2910,7 +2905,7 @@
         <v>1411</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E71" s="53"/>
       <c r="F71" s="67" t="n">
@@ -2930,7 +2925,7 @@
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72" s="67"/>
       <c r="G72" s="67"/>
@@ -2956,7 +2951,7 @@
         <v>2320</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E74" s="46"/>
       <c r="F74" s="47"/>
@@ -2965,7 +2960,7 @@
         <v>13750000</v>
       </c>
       <c r="I74" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3005,34 +3000,34 @@
         <v>43166</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="31"/>
       <c r="E77" s="32"/>
       <c r="F77" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G77" s="33"/>
       <c r="H77" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I77" s="35"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B78" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
       <c r="F78" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G78" s="41"/>
       <c r="H78" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I78" s="43"/>
     </row>
@@ -3042,7 +3037,7 @@
         <v>5110</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E79" s="46"/>
       <c r="F79" s="47"/>
@@ -3051,7 +3046,7 @@
         <v>12500000</v>
       </c>
       <c r="I79" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3061,7 +3056,7 @@
       </c>
       <c r="D80" s="52"/>
       <c r="E80" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F80" s="67" t="n">
         <v>0.02</v>
@@ -3080,7 +3075,7 @@
       </c>
       <c r="D81" s="52"/>
       <c r="E81" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F81" s="67"/>
       <c r="G81" s="67"/>
@@ -3106,7 +3101,7 @@
         <v>2320</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E83" s="46"/>
       <c r="F83" s="47"/>
@@ -3115,7 +3110,7 @@
         <v>12250000</v>
       </c>
       <c r="I83" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3155,34 +3150,34 @@
         <v>43166</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="31"/>
       <c r="E86" s="32"/>
       <c r="F86" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G86" s="33"/>
       <c r="H86" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I86" s="35"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B87" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" s="38"/>
       <c r="E87" s="39"/>
       <c r="F87" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G87" s="41"/>
       <c r="H87" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I87" s="43"/>
     </row>
@@ -3192,7 +3187,7 @@
         <v>5110</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E88" s="46"/>
       <c r="F88" s="47"/>
@@ -3201,7 +3196,7 @@
         <v>12500000</v>
       </c>
       <c r="I88" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3212,7 +3207,7 @@
         <v>1411</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E89" s="53"/>
       <c r="F89" s="67" t="n">
@@ -3232,7 +3227,7 @@
       </c>
       <c r="D90" s="52"/>
       <c r="E90" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F90" s="67" t="n">
         <v>0.02</v>
@@ -3251,7 +3246,7 @@
       </c>
       <c r="D91" s="52"/>
       <c r="E91" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F91" s="67"/>
       <c r="G91" s="67"/>
@@ -3277,7 +3272,7 @@
         <v>2320</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E93" s="46"/>
       <c r="F93" s="47"/>
@@ -3286,7 +3281,7 @@
         <v>13500000</v>
       </c>
       <c r="I93" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3326,34 +3321,34 @@
         <v>43166</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96" s="31"/>
       <c r="E96" s="32"/>
       <c r="F96" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G96" s="33"/>
       <c r="H96" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I96" s="35"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B97" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" s="38"/>
       <c r="E97" s="39"/>
       <c r="F97" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G97" s="41"/>
       <c r="H97" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I97" s="43"/>
     </row>
@@ -3363,7 +3358,7 @@
         <v>5110</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E98" s="46"/>
       <c r="F98" s="47"/>
@@ -3372,7 +3367,7 @@
         <v>12500000</v>
       </c>
       <c r="I98" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3383,7 +3378,7 @@
         <v>1411</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E99" s="53"/>
       <c r="F99" s="67" t="n">
@@ -3403,7 +3398,7 @@
       </c>
       <c r="D100" s="52"/>
       <c r="E100" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F100" s="67"/>
       <c r="G100" s="67"/>
@@ -3429,7 +3424,7 @@
         <v>2320</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="47"/>
@@ -3438,7 +3433,7 @@
         <v>13750000</v>
       </c>
       <c r="I102" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3448,7 +3443,7 @@
       </c>
       <c r="D103" s="52"/>
       <c r="E103" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F103" s="67" t="n">
         <v>0.02</v>
@@ -3497,7 +3492,7 @@
         <v>43186</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -3508,19 +3503,19 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B107" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="D107" s="38"/>
       <c r="E107" s="39"/>
       <c r="F107" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G107" s="41"/>
       <c r="H107" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I107" s="43"/>
     </row>
@@ -3530,7 +3525,7 @@
         <v>5110</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E108" s="46"/>
       <c r="F108" s="47"/>
@@ -3539,7 +3534,7 @@
         <v>3000000</v>
       </c>
       <c r="I108" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3549,7 +3544,7 @@
       </c>
       <c r="D109" s="52"/>
       <c r="E109" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" s="67" t="n">
         <v>0.1</v>
@@ -3568,7 +3563,7 @@
       </c>
       <c r="D110" s="52"/>
       <c r="E110" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F110" s="67"/>
       <c r="G110" s="67"/>
@@ -3594,7 +3589,7 @@
         <v>2320</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E112" s="46"/>
       <c r="F112" s="47"/>
@@ -3603,7 +3598,7 @@
         <v>2700000</v>
       </c>
       <c r="I112" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3906,7 +3901,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -3935,10 +3930,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="22"/>
@@ -3959,24 +3954,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -3995,34 +3990,34 @@
         <v>43161</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
       <c r="F6" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="43"/>
     </row>
@@ -4050,12 +4045,12 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="56" t="n">
         <v>17500000</v>
@@ -4088,7 +4083,7 @@
         <v>17500000</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -4120,10 +4115,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="22"/>
@@ -4144,24 +4139,24 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="70"/>
       <c r="H16" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -4180,34 +4175,34 @@
         <v>43166</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B19" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="43"/>
     </row>
@@ -4217,7 +4212,7 @@
         <v>5110</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -4226,7 +4221,7 @@
         <v>12500000</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -4236,7 +4231,7 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="67"/>
       <c r="G21" s="67"/>
@@ -4262,7 +4257,7 @@
         <v>2320</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
@@ -4271,7 +4266,7 @@
         <v>12500000</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -4659,7 +4654,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -4688,10 +4683,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="22"/>
@@ -4712,24 +4707,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -4748,34 +4743,34 @@
         <v>43161</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
       <c r="F6" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="43"/>
     </row>
@@ -4803,12 +4798,12 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="56" t="n">
         <v>17500000</v>
@@ -4823,7 +4818,7 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="67" t="n">
         <v>0.1</v>
@@ -4862,7 +4857,7 @@
         <v>19250000</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -4894,10 +4889,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="22"/>
@@ -4918,24 +4913,24 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B17" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="70"/>
       <c r="H17" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -4954,34 +4949,34 @@
         <v>43166</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" s="43"/>
     </row>
@@ -4991,7 +4986,7 @@
         <v>5110</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
@@ -5000,7 +4995,7 @@
         <v>12500000</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -5011,7 +5006,7 @@
         <v>1411</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="67" t="n">
@@ -5031,7 +5026,7 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
@@ -5057,7 +5052,7 @@
         <v>2320</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
@@ -5066,7 +5061,7 @@
         <v>13750000</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -5452,7 +5447,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -5481,10 +5476,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="22"/>
@@ -5505,24 +5500,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -5541,34 +5536,34 @@
         <v>43161</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
       <c r="F6" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="43"/>
     </row>
@@ -5595,7 +5590,7 @@
         <v>1423</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="67" t="n">
@@ -5615,12 +5610,12 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="56" t="n">
         <v>17500000</v>
@@ -5653,7 +5648,7 @@
         <v>17150000</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -5685,10 +5680,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="22"/>
@@ -5709,24 +5704,24 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B17" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="70"/>
       <c r="H17" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -5745,34 +5740,34 @@
         <v>43166</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="43"/>
     </row>
@@ -5782,7 +5777,7 @@
         <v>5110</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
@@ -5791,7 +5786,7 @@
         <v>12500000</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -5801,7 +5796,7 @@
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="67" t="n">
         <v>0.02</v>
@@ -5820,7 +5815,7 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
@@ -5846,7 +5841,7 @@
         <v>2320</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
@@ -5855,7 +5850,7 @@
         <v>12250000</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -6241,7 +6236,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -6270,10 +6265,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="22"/>
@@ -6294,24 +6289,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -6330,34 +6325,34 @@
         <v>43161</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
       <c r="F6" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="43"/>
     </row>
@@ -6384,7 +6379,7 @@
         <v>1423</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="67" t="n">
@@ -6404,12 +6399,12 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="56" t="n">
         <v>17500000</v>
@@ -6424,7 +6419,7 @@
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="67" t="n">
         <v>0.1</v>
@@ -6463,7 +6458,7 @@
         <v>18900000</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -6495,10 +6490,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="22"/>
@@ -6520,24 +6515,24 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A18" s="28"/>
       <c r="B18" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -6555,34 +6550,34 @@
         <v>43166</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="35"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B21" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="43"/>
     </row>
@@ -6592,7 +6587,7 @@
         <v>5110</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="47"/>
@@ -6601,7 +6596,7 @@
         <v>12500000</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -6612,7 +6607,7 @@
         <v>1411</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="67" t="n">
@@ -6632,7 +6627,7 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="67" t="n">
         <v>0.02</v>
@@ -6651,7 +6646,7 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="67"/>
       <c r="G25" s="67"/>
@@ -6677,7 +6672,7 @@
         <v>2320</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
@@ -6686,7 +6681,7 @@
         <v>13500000</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -7070,7 +7065,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -7099,10 +7094,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="22"/>
@@ -7123,24 +7118,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -7159,34 +7154,34 @@
         <v>43161</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
       <c r="F6" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="43"/>
     </row>
@@ -7214,12 +7209,12 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="56" t="n">
         <v>17500000</v>
@@ -7234,7 +7229,7 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="67" t="n">
         <v>0.1</v>
@@ -7273,7 +7268,7 @@
         <v>18900000</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -7282,7 +7277,7 @@
         <v>1423</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="67" t="n">
@@ -7324,10 +7319,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="22"/>
@@ -7349,24 +7344,24 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A18" s="28"/>
       <c r="B18" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -7384,34 +7379,34 @@
         <v>43166</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="35"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B21" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="43"/>
     </row>
@@ -7421,7 +7416,7 @@
         <v>5110</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="47"/>
@@ -7430,7 +7425,7 @@
         <v>12500000</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -7441,7 +7436,7 @@
         <v>1411</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="67" t="n">
@@ -7461,7 +7456,7 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
@@ -7487,7 +7482,7 @@
         <v>2320</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
@@ -7496,7 +7491,7 @@
         <v>13750000</v>
       </c>
       <c r="I26" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -7506,7 +7501,7 @@
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="67" t="n">
         <v>0.02</v>
@@ -7899,7 +7894,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -7928,10 +7923,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="22"/>
@@ -7952,24 +7947,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B4" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="70"/>
       <c r="H4" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -7988,7 +7983,7 @@
         <v>43186</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
@@ -7999,19 +7994,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="43"/>
     </row>
@@ -8021,7 +8016,7 @@
         <v>5110</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
@@ -8030,7 +8025,7 @@
         <v>3000000</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -8040,7 +8035,7 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="67" t="n">
         <v>0.1</v>
@@ -8059,7 +8054,7 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
@@ -8085,7 +8080,7 @@
         <v>2320</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="47"/>
@@ -8094,7 +8089,7 @@
         <v>2700000</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
